--- a/seeder/switch-L3Vulnerability.xlsx
+++ b/seeder/switch-L3Vulnerability.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="ZohoSheetWriter"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowHeight="8192" windowWidth="16384"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>vulnerabilityTypes</t>
   </si>
@@ -28,13 +27,13 @@
     <t>impact</t>
   </si>
   <si>
-    <t>vulnarabilityParameter</t>
-  </si>
-  <si>
     <t>references</t>
   </si>
   <si>
     <t>recommendation</t>
+  </si>
+  <si>
+    <t>criteria</t>
   </si>
   <si>
     <t>Unsupported Cisco Operating System</t>
@@ -50,10 +49,10 @@
 security vulnerabilities.</t>
   </si>
   <si>
-    <t>Device IP Address</t>
-  </si>
-  <si>
     <t>Upgrade to a Cisco operating system that is currently supported.</t>
+  </si>
+  <si>
+    <t>Switch-L3</t>
   </si>
   <si>
     <t>Cisco IOS Cluster Management Protocol Telnet Option Handling RCE (cisco-sa-20170317-cmp)</t>
@@ -1206,35 +1205,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1270,1852 +1263,1570 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="38.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="1" width="32.72"/>
+    <col min="2" max="2" style="1" width="18.41"/>
+    <col min="3" max="3" style="1" width="31.0"/>
+    <col min="4" max="4" style="1" width="38.29"/>
+    <col min="5" max="5" style="2" width="43.72"/>
+    <col min="6" max="6" style="1" width="57.9"/>
+    <col min="7" max="1024" width="10.86"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="121.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" ht="122.0">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="134.25" customFormat="1" s="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="134.0" customFormat="1" s="1">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="147" customFormat="1" s="1">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="147.0" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="288.75" customFormat="1" s="1">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="289.0" customFormat="1" s="1">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="224.25" customFormat="1" s="1">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="224.0" customFormat="1" s="1">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="173.25" customFormat="1" s="1">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="174.0" customFormat="1" s="1">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="159.75" customFormat="1" s="1">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="160.0" customFormat="1" s="1">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="147" customFormat="1" s="1">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="147.0" customFormat="1" s="1">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="83.25" customFormat="1" s="1">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="84.0" customFormat="1" s="1">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A12" s="3" t="s">
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A16" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A25" s="3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A26" s="3" t="s">
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A28" s="3" t="s">
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A29" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A30" s="3" t="s">
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A31" s="3" t="s">
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A32" s="3" t="s">
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A33" s="3" t="s">
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A35" s="3" t="s">
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="3" t="s">
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A37" s="3" t="s">
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A38" s="3" t="s">
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A39" s="3" t="s">
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A39" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A40" s="3" t="s">
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A40" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A41" s="3" t="s">
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A41" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A42" s="3" t="s">
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A43" s="3" t="s">
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A43" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A44" s="3" t="s">
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A45" s="3" t="s">
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A45" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A46" s="3" t="s">
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A47" s="3" t="s">
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A47" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A48" s="3" t="s">
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A48" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="3" t="s">
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A50" s="3" t="s">
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A50" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="3" t="s">
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A51" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A52" s="3" t="s">
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A52" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A53" s="3" t="s">
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A53" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A54" s="3" t="s">
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A55" s="3" t="s">
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A55" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A56" s="3" t="s">
+      <c r="G55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A56" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A57" s="3" t="s">
+      <c r="G56" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A57" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A58" s="3" t="s">
+      <c r="G57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A58" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A59" s="3" t="s">
+      <c r="G58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A59" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A60" s="3" t="s">
+      <c r="G59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A60" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A61" s="3" t="s">
+      <c r="G60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A61" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A62" s="3" t="s">
+      <c r="G61" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A62" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A63" s="3" t="s">
+      <c r="G62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A63" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A64" s="3" t="s">
+      <c r="G63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A64" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A65" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A65" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A66" s="3" t="s">
+      <c r="G65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A66" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A67" s="3" t="s">
+      <c r="G66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A67" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A68" s="3" t="s">
+      <c r="G67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A68" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A69" s="3" t="s">
+      <c r="G68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A69" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A70" s="3" t="s">
+      <c r="G69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" ht="19.0" customFormat="1" s="1">
+      <c r="A70" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
         <v>262</v>
       </c>
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst/>
 </worksheet>
 </file>